--- a/OutData/ModelManager.xlsx
+++ b/OutData/ModelManager.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,294 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>uniaxialMaterial</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sec_I_steel</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{'fy': 400000.0, 'Es': 200000000.0, 'b': 0.01}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sec_I</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{'A': np.float64(0.006625256837534596), 'Asy': np.float64(0.0034418153458413113), 'Asz': np.float64(0.003500474954553591), 'centroid': (0.0, 0.0), 'Iy': np.float64(3.749484325199784e-05), 'Iz': np.float64(4.361301270611165e-06), 'Iyz': np.float64(-1.6861249606280808e-21), 'Wyt': np.float64(0.0003749484325199791), 'Wyb': np.float64(0.00037494843251997773), 'Wzt': np.float64(6.230430386587378e-05), 'Wzb': np.float64(6.230430386587379e-05), 'J': np.float64(6.838045575452271e-07), 'phi': 0.0, 'mass': np.float64(0.006625256837534596), 'rho_rebar': np.float64(0.0), 'P': np.float64(265.01027350138384)}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>uniaxialMaterial</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sec_circle_cover</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{'fc': -40000.0, 'ec': -0.002, 'ecu': -0.0033, 'Ec': 32599837.000814993}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>uniaxialMaterial</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sec_circle_core</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{'fc': -46293.928895914076, 'ec': -0.005896245669564557, 'ecu': -0.009527430007796914, 'Ec': 32599837.000814993}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>uniaxialMaterial</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sec_circle_rebar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{'fy': 400000.0, 'Es': 200000000.0, 'b': 0.01, 'R0': 18, 'cR1': 0.925, 'cR2': 0.15}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sec_circle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{'A': np.float64(1.8712052173601812), 'Asy': np.float64(1.3848454500465954), 'Asz': np.float64(1.384835022491545), 'centroid': (0.0, 0.0), 'Iy': np.float64(0.31578776861869007), 'Iz': np.float64(0.3157877686184844), 'Iyz': np.float64(-9.86623976961809e-18), 'Wyt': np.float64(0.39690901991353583), 'Wyb': np.float64(0.39690901991353583), 'Wzt': np.float64(0.39473471077310546), 'Wzb': np.float64(0.39473471077310546), 'J': np.float64(0.6313715042051343), 'phi': 0.0, 'mass': np.float64(1.8712052173601812), 'rho_rebar': np.float64(0.010530148665955998), 'P': np.float64(7484.820869440726)}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>uniaxialMaterial</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sec_polygonal_cover</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{'fc': -40000.0, 'ec': -0.002, 'ecu': -0.0033, 'Ec': 32599837.000814993}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>uniaxialMaterial</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sec_polygonal_core</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{'fc': -47031.25, 'ec': -0.006200390625, 'ecu': -0.016672, 'Ec': 32599837.000814993}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>uniaxialMaterial</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sec_polygonal_rebar</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{'fy': 400000.0, 'Es': 200000000.0, 'b': 0.01, 'R0': 18, 'cR1': 0.925, 'cR2': 0.15}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sec_polygonal</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{'A': np.float64(1.0799999999999998), 'Asy': np.float64(0.7932919173485786), 'Asz': np.float64(0.7642792603300177), 'centroid': (0.0, 0.0), 'Iy': np.float64(0.14686757812500073), 'Iz': np.float64(0.08009999999999998), 'Iyz': np.float64(1.3247595295057165e-18), 'Wyt': np.float64(0.26753866223909023), 'Wyb': np.float64(0.18334574122236771), 'Wzt': np.float64(0.1456363636363636), 'Wzb': np.float64(0.1456363636363636), 'J': np.float64(0.12469266239631244), 'phi': 0.0, 'mass': np.float64(1.0799999999999998), 'rho_rebar': np.float64(0.014782938764391976), 'P': np.float64(4319.999999999999)}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>uniaxialMaterial</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sec_rect_inner</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{'fy': 500000.0, 'Es': 200000000.0, 'b': 0.01, 'R0': 18, 'cR1': 0.925, 'cR2': 0.15}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sec_rect</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{'A': np.float64(0.006445204999999996), 'Asy': np.float64(0.005371016956723657), 'Asz': np.float64(0.00537100747614441), 'centroid': (0.0, 0.0), 'Iy': np.float64(5.2808307262906375e-06), 'Iz': np.float64(2.2692492604166604e-06), 'Iyz': np.float64(-2.371692252312041e-20), 'Wyt': np.float64(0.0001065145320308328), 'Wyb': np.float64(0.00010651453203083255), 'Wzt': np.float64(6.982305416666649e-05), 'Wzb': np.float64(6.982305416666646e-05), 'J': np.float64(5.3883488208270915e-06), 'phi': 0.0, 'mass': np.float64(0.006445204999999996), 'rho_rebar': np.float64(0.0), 'P': np.float64(322.2602499999998)}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/OutData/ModelManager.xlsx
+++ b/OutData/ModelManager.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,7 +588,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'fc': -29637.593495169644, 'ec': -0.006360811706811966, 'ecu': -0.011794703319327885, 'Ec': 29300000.0}</t>
+          <t>{'fc': -29639.35539926583, 'ec': -0.006361974563515449, 'ecu': -0.011794239965131348, 'Ec': 29300000.0}</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'fy': 400000.0, 'Es': 190000000.0, 'b': 0.01, 'R0': 18, 'cR1': 0.925, 'cR2': 0.15}</t>
+          <t>{'fy': 400200.0, 'Es': 190000000.0, 'b': 0.01, 'R0': 18, 'cR1': 0.925, 'cR2': 0.15}</t>
         </is>
       </c>
     </row>
@@ -636,9 +636,1101 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'A': np.float64(0.12474701449076847), 'Asy': np.float64(0.10692415949243654), 'Asz': np.float64(0.10692385002111156), 'centroid': (0.0, 0.0), 'Iy': np.float64(0.0012383834063487986), 'Iz': np.float64(0.001238383406349358), 'Iyz': np.float64(7.453889935837843e-20), 'Wyt': np.float64(0.006226023841778129), 'Wyb': np.float64(0.006226023841778129), 'Wzt': np.float64(0.00619191703174679), 'Wzb': np.float64(0.00619191703174679), 'J': np.float64(0.0024761980207383075), 'phi': 0.0, 'mass': np.float64(0.12474701449076847), 'rho_rebar': np.float64(0.006447029795478616), 'P': np.float64(311.8675362269212), 'strain_stages': {6: (0.002105263157894737, 0.015, 0.055, 0.1), 5: (-0.002105263157894737, -0.0033, -0.008846027489495914, -0.011794703319327885)}, 'strain_thresholds': {6: (-0.1, 0.1), 4: (-0.0033, 0.0), 5: (-0.011794703319327885, 0.0)}, 'Radius': 0.2}</t>
-        </is>
-      </c>
+          <t>{'A': np.float64(0.12474701449076847), 'Asy': np.float64(0.10692415949243654), 'Asz': np.float64(0.10692385002111156), 'centroid': (0.0, 0.0), 'Iy': np.float64(0.0012383834063487986), 'Iz': np.float64(0.001238383406349358), 'Iyz': np.float64(7.453889935837843e-20), 'Wyt': np.float64(0.006226023841778129), 'Wyb': np.float64(0.006226023841778129), 'Wzt': np.float64(0.00619191703174679), 'Wzb': np.float64(0.00619191703174679), 'J': np.float64(0.0024761980207383075), 'phi': 0.0, 'mass': np.float64(0.12474701449076847), 'rho_rebar': np.float64(0.00684996915769603), 'P': np.float64(311.8675362269212), 'strain_stages': {6: (0.002106315789473684, 0.015, 0.055, 0.1), 5: (-0.002106315789473684, -0.0033, -0.008845679973848511, -0.011794239965131348)}, 'strain_thresholds': {6: (-0.1, 0.1), 4: (-0.0033, 0.0), 5: (-0.011794239965131348, 0.0)}, 'Radius': 0.2}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>29</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>uniaxialMaterial</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>{'fy': 1860000.0, 'Es': 206000000.0, 'force': 854190.3109156432, 'yield': 0.009029126213592233}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>22</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>19</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>31</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>31</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>28</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>18</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>16</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>21</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>beamIntegration</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>disp_ctrl</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>23</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>26</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>beamIntegration</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>30</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>32</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>27</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>32</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>17</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>12</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>24</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>21</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>27</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>29</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PT_2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>19</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>9</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>23</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>14</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>26</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>28</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PT_1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>13</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>11</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>11</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>8</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>16</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
